--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.887400000000006</v>
+        <v>5.846500000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.733</v>
+        <v>5.756399999999998</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.864000000000003</v>
+        <v>9.928300000000002</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.105500000000005</v>
+        <v>-8.047200000000002</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.881499999999997</v>
+        <v>8.875899999999994</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.362600000000003</v>
+        <v>-7.268400000000003</v>
       </c>
     </row>
     <row r="25">
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.553500000000001</v>
+        <v>5.543499999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.840200000000005</v>
+        <v>4.639300000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.254999999999997</v>
+        <v>-8.156899999999995</v>
       </c>
     </row>
     <row r="29">
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.233100000000003</v>
+        <v>5.220500000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.9895</v>
+        <v>-6.726699999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.189599999999997</v>
+        <v>-7.191599999999997</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.386099999999992</v>
+        <v>-7.680299999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.170399999999999</v>
+        <v>-8.0114</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.902500000000007</v>
+        <v>-7.945500000000009</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.1918</v>
+        <v>5.935600000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.3492</v>
+        <v>-8.411999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.945600000000004</v>
+        <v>-7.939200000000008</v>
       </c>
     </row>
     <row r="55">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.982499999999995</v>
+        <v>4.896199999999993</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.0534</v>
+        <v>4.8953</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.191699999999995</v>
+        <v>5.349399999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.299300000000001</v>
+        <v>-7.2662</v>
       </c>
     </row>
     <row r="71">
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.548100000000009</v>
+        <v>9.611600000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.371399999999997</v>
+        <v>5.203099999999995</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.289999999999994</v>
+        <v>-8.210599999999998</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.485099999999994</v>
+        <v>-8.660899999999991</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.357599999999996</v>
+        <v>-8.316400000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.801000000000005</v>
+        <v>5.896900000000004</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.5774</v>
+        <v>5.597599999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.010600000000005</v>
+        <v>-8.098700000000001</v>
       </c>
     </row>
     <row r="102">
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.932199999999997</v>
+        <v>5.929599999999996</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
